--- a/samples/csv_file__lat_long/Locations.xlsx
+++ b/samples/csv_file__lat_long/Locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="22020" windowHeight="8736"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22020" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,24 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Icon_color</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Thumb_URL</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
     <t>Viewing platform</t>
   </si>
   <si>
@@ -409,7 +391,25 @@
     <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_intro_picture_thumbnail.jpg</t>
   </si>
   <si>
-    <t>Caption</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>icon_color</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>lat</t>
+  </si>
+  <si>
+    <t>pic_url</t>
+  </si>
+  <si>
+    <t>thumb_url</t>
   </si>
 </sst>
 </file>
@@ -1255,52 +1255,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="82.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="82.9" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="76" style="1" customWidth="1"/>
-    <col min="7" max="7" width="87.33203125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="87.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>-117.2296755</v>
@@ -1309,21 +1311,21 @@
         <v>32.792095500000002</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
         <v>-117.23143570000001</v>
@@ -1332,21 +1334,21 @@
         <v>32.792551000000003</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4" s="3">
         <v>-117.2313054</v>
@@ -1355,21 +1357,21 @@
         <v>32.792258699999998</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5" s="3">
         <v>-117.23130070000001</v>
@@ -1378,21 +1380,21 @@
         <v>32.792178700000001</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <v>-117.23039559999999</v>
@@ -1401,21 +1403,21 @@
         <v>32.7911462</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3">
         <v>-117.2299153</v>
@@ -1424,21 +1426,21 @@
         <v>32.7933734</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
         <v>-117.23081089999999</v>
@@ -1447,21 +1449,21 @@
         <v>32.792777200000003</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
         <v>-117.2299096</v>
@@ -1470,21 +1472,21 @@
         <v>32.793343</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>-117.2307709</v>
@@ -1493,21 +1495,21 @@
         <v>32.793389400000002</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
         <v>-117.230248</v>
@@ -1516,21 +1518,21 @@
         <v>32.794897499999998</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" s="3">
         <v>-117.2320107</v>
@@ -1539,21 +1541,21 @@
         <v>32.791363400000002</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13" s="3">
         <v>-117.2291243</v>
@@ -1562,21 +1564,21 @@
         <v>32.791958000000001</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <v>-117.2290939</v>
@@ -1585,21 +1587,21 @@
         <v>32.791803399999999</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>-117.2234562</v>
@@ -1608,21 +1610,21 @@
         <v>32.791569099999997</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>-117.2324632</v>
@@ -1631,21 +1633,21 @@
         <v>32.789943399999999</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3">
         <v>-117.2323986</v>
@@ -1654,21 +1656,21 @@
         <v>32.789830299999998</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3">
         <v>-117.2323986</v>
@@ -1677,21 +1679,21 @@
         <v>32.7897344</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3">
         <v>-117.2318253</v>
@@ -1700,21 +1702,21 @@
         <v>32.789768000000002</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3">
         <v>-117.2313803</v>
@@ -1723,21 +1725,21 @@
         <v>32.789789599999999</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3">
         <v>-117.2305817</v>
@@ -1746,21 +1748,21 @@
         <v>32.7900341</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3">
         <v>-117.2301767</v>
@@ -1769,21 +1771,21 @@
         <v>32.790283500000001</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3">
         <v>-117.22969759999999</v>
@@ -1792,21 +1794,21 @@
         <v>32.790408200000002</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
         <v>-117.2291728</v>
@@ -1815,21 +1817,21 @@
         <v>32.7906288</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D25" s="3">
         <v>-117.2283742</v>
@@ -1838,21 +1840,21 @@
         <v>32.7904993</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D26" s="3">
         <v>-117.2280832</v>
@@ -1861,21 +1863,21 @@
         <v>32.791127500000002</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <v>-117.22867460000001</v>
@@ -1884,21 +1886,21 @@
         <v>32.794102100000003</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D28" s="3">
         <v>-117.231697</v>
@@ -1907,21 +1909,21 @@
         <v>32.792040200000002</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D29" s="3">
         <v>-117.231827</v>
@@ -1930,21 +1932,21 @@
         <v>32.791771699999998</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>-117.22806199999999</v>
@@ -1953,21 +1955,21 @@
         <v>32.795569499999999</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D31" s="3">
         <v>-117.23160900000001</v>
@@ -1976,21 +1978,21 @@
         <v>32.790238000000002</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D32" s="3">
         <v>-117.2321846</v>
@@ -1999,10 +2001,10 @@
         <v>32.790478</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/samples/csv_file__lat_long/Locations.xlsx
+++ b/samples/csv_file__lat_long/Locations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22020" windowHeight="8730"/>
+    <workbookView xWindow="480" yWindow="108" windowWidth="22020" windowHeight="8736"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,18 +385,12 @@
     <t>Welcome to the reserve</t>
   </si>
   <si>
-    <t>The reserve is managed jointly. The Kendall Frost Mission Bay Reserve is part of the University of California Natural Reserve System (UC NRS) and is managed by the University of California San Diego (UCSD). The adjacent Northern Wildlife Reserve is managed by the City of San Diego.</t>
-  </si>
-  <si>
     <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_intro_picture_thumbnail.jpg</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
     <t>icon_color</t>
   </si>
   <si>
@@ -410,6 +404,12 @@
   </si>
   <si>
     <t>thumb_url</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>The reserve is managed jointly. The Kendall Frost Mission Bay Reserve is part of the University of California Natural Reserve System (UC NRS) and is managed by the University of California San Diego (UCSD). The adjacent Northern Wildlife Reserve is managed by the City of San Diego. &lt;i&gt;&lt;a href="http://nrs.ucsd.edu/kendall.html" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -1255,51 +1255,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="82.9" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="82.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="51" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
     <col min="6" max="6" width="76" style="1" customWidth="1"/>
-    <col min="7" max="7" width="87.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="87.33203125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1314,10 +1314,10 @@
         <v>121</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>37</v>
       </c>
@@ -1570,7 +1570,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>102</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
@@ -1639,7 +1639,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>108</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>107</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>98</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>111</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>93</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>62</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>70</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>76</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>82</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>86</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>

--- a/samples/csv_file__lat_long/Locations.xlsx
+++ b/samples/csv_file__lat_long/Locations.xlsx
@@ -406,10 +406,10 @@
     <t>thumb_url</t>
   </si>
   <si>
-    <t>caption</t>
-  </si>
-  <si>
     <t>The reserve is managed jointly. The Kendall Frost Mission Bay Reserve is part of the University of California Natural Reserve System (UC NRS) and is managed by the University of California San Diego (UCSD). The adjacent Northern Wildlife Reserve is managed by the City of San Diego. &lt;i&gt;&lt;a href="http://nrs.ucsd.edu/kendall.html" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -1276,7 +1276,7 @@
         <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>125</v>
@@ -1299,7 +1299,7 @@
         <v>122</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>

--- a/samples/csv_file__lat_long/Locations.xlsx
+++ b/samples/csv_file__lat_long/Locations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
   <si>
     <t>Viewing platform</t>
   </si>
@@ -148,9 +148,6 @@
     <t>The marsh reserve shares Mission Bay Park with various recreational activities, including the hydroplane thunderboats that race here in the annual San Diego Bayfair.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/mission_bay_recreation.jpg</t>
-  </si>
-  <si>
     <t>http://downloads.esri.com/blogs/places/missionbaymarsh/mission_bay_recreation_thumbnail.jpg</t>
   </si>
   <si>
@@ -410,6 +407,15 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>is_video</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/embed/4YaJhEONlfE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -909,7 +915,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1253,53 +1259,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="82.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="76" style="1" customWidth="1"/>
-    <col min="7" max="7" width="87.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.44140625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -1311,18 +1320,19 @@
         <v>32.792095500000002</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
@@ -1339,8 +1349,9 @@
       <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1362,8 +1373,9 @@
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1385,243 +1397,256 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-117.2234562</v>
+      </c>
+      <c r="E6" s="3">
+        <v>32.791569099999997</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
+      <c r="B7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
         <v>-117.23039559999999</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="3">
         <v>32.7911462</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
         <v>-117.2299153</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>32.7933734</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
         <v>-117.23081089999999</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>32.792777200000003</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
         <v>-117.2299096</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E10" s="3">
         <v>32.793343</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="3">
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>-117.2307709</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>32.793389400000002</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
         <v>-117.230248</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E12" s="3">
         <v>32.794897499999998</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="3">
         <v>-117.2320107</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E13" s="3">
         <v>32.791363400000002</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
         <v>-117.2291243</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E14" s="3">
         <v>32.791958000000001</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
         <v>-117.2290939</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E15" s="3">
         <v>32.791803399999999</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="3">
-        <v>-117.2234562</v>
-      </c>
-      <c r="E15" s="3">
-        <v>32.791569099999997</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>1</v>
@@ -1633,18 +1658,19 @@
         <v>32.789943399999999</v>
       </c>
       <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
@@ -1656,18 +1682,19 @@
         <v>32.789830299999998</v>
       </c>
       <c r="F17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>1</v>
@@ -1679,18 +1706,19 @@
         <v>32.7897344</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>1</v>
@@ -1701,19 +1729,22 @@
       <c r="E19" s="3">
         <v>32.789768000000002</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
@@ -1725,18 +1756,19 @@
         <v>32.789789599999999</v>
       </c>
       <c r="F20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>1</v>
@@ -1748,18 +1780,19 @@
         <v>32.7900341</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>1</v>
@@ -1771,18 +1804,19 @@
         <v>32.790283500000001</v>
       </c>
       <c r="F22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
@@ -1794,18 +1828,19 @@
         <v>32.790408200000002</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1</v>
@@ -1817,18 +1852,19 @@
         <v>32.7906288</v>
       </c>
       <c r="F24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>1</v>
@@ -1840,18 +1876,19 @@
         <v>32.7904993</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>1</v>
@@ -1863,18 +1900,19 @@
         <v>32.791127500000002</v>
       </c>
       <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1</v>
@@ -1886,18 +1924,19 @@
         <v>32.794102100000003</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="B28" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>1</v>
@@ -1909,18 +1948,19 @@
         <v>32.792040200000002</v>
       </c>
       <c r="F28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="B29" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>1</v>
@@ -1932,18 +1972,19 @@
         <v>32.791771699999998</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1</v>
@@ -1955,18 +1996,19 @@
         <v>32.795569499999999</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="B31" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1</v>
@@ -1978,18 +2020,19 @@
         <v>32.790238000000002</v>
       </c>
       <c r="F31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="B32" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>1</v>
@@ -2001,11 +2044,18 @@
         <v>32.790478</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="8:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="8:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H34" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/samples/csv_file__lat_long/Locations.xlsx
+++ b/samples/csv_file__lat_long/Locations.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rupert\Documents\Story Maps\Story Map Tour\samples\csv_file__lat_long\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="108" windowWidth="22020" windowHeight="8736"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="133">
   <si>
     <t>Viewing platform</t>
   </si>
@@ -22,285 +27,114 @@
     <t>R</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/viewing_platform.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/viewing_platform_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Tidal creek at low tide</t>
   </si>
   <si>
     <t>In this view looking south over the marsh you can see downtown San Diego, six miles away on the horizon. The next photo shows the same view at high tide.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_low_tide.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_low_tide_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Tidal creek at high tide</t>
   </si>
   <si>
     <t>All the plants and animals of the marsh are adapted to the twice-daily stress of being inundated with saltwater.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_high_tide.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_high_tide_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>What good is a marsh?</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_ecosystem.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_ecosystem_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Egrets</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/egrets.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/egrets_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Great Blue Heron</t>
   </si>
   <si>
     <t>These are common in the marsh, where they spend the day fishing and hunting for small animals. They are the tallest birds seen in the reserve, but only weigh about 5lbs. Most of these local birds nest and roost in trees in the nearby Sea World theme park.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/great_blue_heron.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/great_blue_heron_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Little Blue Herons</t>
   </si>
   <si>
     <t xml:space="preserve">Frequently seen in the creek near the viewing platform, these birds only arrived in the San Diego area some 50 years ago, following the Snowy Egrets here. The egrets and herons are often seen together and nest in the same places, especially in Sea World. </t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/little_blue_herons.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/little_blue_herons_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Cooper's Hawk</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/coopers_hawk.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/coopers_hawk_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Red Tailed Hawk</t>
   </si>
   <si>
     <t>These beautiful raptors are relatively common throughout San Diego County, having adapted to suburban situations. The adults have a distinctive red tail, visible in flight. The one pictured here is a juvenile.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/juvenile_red_tailed_hawk.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/juvenile_red_tailed_hawk_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Urban setting</t>
   </si>
   <si>
     <t>A striking feature of the marsh preserve is its urban setting. This high tide shot shows the condos and apartments at the water's edge in the Crown Point neighborhood.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/urban_setting.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/urban_setting_thumbnail.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Light-footed Clapper Rail </t>
   </si>
   <si>
     <t>These endangered birds are the signature species in the marsh. They mainly eat crabs and are very poor flyers, so they depend on cover to hide. Their sounds are very unmusical, but provide a way to count them. There are only 10-20 birds in this marsh.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/clapper_rail.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/clapper_rail_thumbnail.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/clapper_rails_on_nest.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/clapper_rails_on_nest_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>The marsh reserve shares Mission Bay Park with various recreational activities, including the hydroplane thunderboats that race here in the annual San Diego Bayfair.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/mission_bay_recreation_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Marsh vegetation</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_vegetation.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_vegetation_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>This is a typical upland marsh plant. This attractive white, funnel-like flower is actually poisonous.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/jimson_weed.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/jimson_weed_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>This is another upland plant. It's a good native plant for habitat restoration work because it can grow in poor quality soil such as sand or gravel. California buckwheat produces many seeds and can be used to make flour.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/california_buckwheat.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/california_buckwheat_thumbnail.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/cordgrass.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/cordgrass_thumbnail.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/sandbar.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/sandbar_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>The large flock here contains a mix of brown Marbled Godwits and grey Willets. The small grey and white birds in the foreground are Western Sandpipers.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/sandbar_birds.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/sandbar_birds_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>American Wigeons</t>
   </si>
   <si>
     <t>Many ducks migrate here for the winter as these American Wigeons do. They can be seen in small flocks around the marsh.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/american_wigeons.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/american_wigeons_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Black Skimmer</t>
   </si>
   <si>
     <t>These nest mainly in the south end of San Diego Bay and winter mainly in the marsh and around Crown Point. They fish by flying just above the water with their long lower bill in the water to scoop up small fish and other edibles.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/black_skimmer.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/black_skimmer_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Western Grebe</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/western_grebe.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/western_grebe_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Research and education</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/education_at_the_marsh.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/education_at_the_marsh_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Small birds</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/beldings_sparrow.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/beldings_sparrow_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Northern Mockingbird</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/mockingbird.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/mockingbird_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Coyote</t>
   </si>
   <si>
     <t>Coyotes visit the marsh sometimes presumably using nearby Rose Creek as a wildlife corridor. They are not entirely welcome visitors because the marsh is too small to absorb much predation of endangered birds and their nesting young.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/coyote.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/coyote_thumbnail.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve">Robin Stribley marsh </t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/robin_stribley_marsh.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/robin_stribley_marsh_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Spider's web</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_closing_picture.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_closing_picture_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Although the reserve is normally closed to public access, there are great views over the marsh from Crown Point Drive.</t>
   </si>
   <si>
     <t>Brant</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/brant.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/brant_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>We end with this photo that perhaps symbolizes the delicate balance between man and nature here at the marsh reserve. All the remarkable photographs used in this tour are by Roy Little of Friends of Mission Bay Marshes.</t>
   </si>
   <si>
@@ -358,12 +192,6 @@
     <t>As part of the UCSD Natural Reserve System, the marsh reserve is used in classes and student research projects. In this picture, students from the UCSD Scripps Institute of Oceanography learn about the marsh.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/estuary_seablite.jpg</t>
-  </si>
-  <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/estuary_seablite_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>Small land birds are common on a narrow band of land between the marsh and the surrounding streets. This is a Belding's Savannah Sparrow, endangered in California. It usually nests in pickleweed that does not get frequently inundated by tides, but forages in much of the marsh.</t>
   </si>
   <si>
@@ -376,15 +204,9 @@
     <t>The marsh acts as a nursery for multiple fish, snails, crustaceans, and also as a water purification mechanism by filtering out contaminants and storing nutrients.</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_intro_picture.jpg</t>
-  </si>
-  <si>
     <t>Welcome to the reserve</t>
   </si>
   <si>
-    <t>http://downloads.esri.com/blogs/places/missionbaymarsh/marsh_intro_picture_thumbnail.jpg</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -403,19 +225,199 @@
     <t>thumb_url</t>
   </si>
   <si>
-    <t>The reserve is managed jointly. The Kendall Frost Mission Bay Reserve is part of the University of California Natural Reserve System (UC NRS) and is managed by the University of California San Diego (UCSD). The adjacent Northern Wildlife Reserve is managed by the City of San Diego. &lt;i&gt;&lt;a href="http://nrs.ucsd.edu/kendall.html" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
     <t>is_video</t>
   </si>
   <si>
-    <t>http://www.youtube.com/embed/4YaJhEONlfE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
+    <t>https://www.youtube.com/embed/4YaJhEONlfE</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_intro_picture.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/viewing_platform.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_low_tide.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_high_tide.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_ecosystem.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/egrets.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/great_blue_heron.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/little_blue_herons.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/coopers_hawk.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/juvenile_red_tailed_hawk.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/urban_setting.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/clapper_rail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/clapper_rails_on_nest.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_vegetation.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/jimson_weed.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/california_buckwheat.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/estuary_seablite.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/cordgrass.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/sandbar.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/sandbar_birds.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/brant.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/american_wigeons.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/black_skimmer.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/western_grebe.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/education_at_the_marsh.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/beldings_sparrow.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/mockingbird.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/coyote.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/robin_stribley_marsh.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_closing_picture.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_intro_picture_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/viewing_platform_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_low_tide_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_high_tide_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/mission_bay_recreation_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_ecosystem_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/egrets_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/great_blue_heron_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/little_blue_herons_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/coopers_hawk_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/juvenile_red_tailed_hawk_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/urban_setting_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/clapper_rail_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/clapper_rails_on_nest_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_creek_vegetation_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/jimson_weed_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/california_buckwheat_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/estuary_seablite_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/cordgrass_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/sandbar_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/sandbar_birds_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/brant_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/american_wigeons_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/black_skimmer_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/western_grebe_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/education_at_the_marsh_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/beldings_sparrow_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/mockingbird_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/coyote_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/robin_stribley_marsh_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>https://downloads.esri.com/blogs/places/missionbaymarsh/marsh_closing_picture_thumbnail.jpg</t>
+  </si>
+  <si>
+    <t>The reserve is managed jointly. The Kendall Frost Mission Bay Reserve is part of the University of California Natural Reserve System (UC NRS) and is managed by the University of California San Diego (UCSD). The adjacent Northern Wildlife Reserve is managed by the City of San Diego. &lt;i&gt;&lt;a href="https://links.esri.com/storymaps/maptour_sample/marshwebsite" style="color:yellow" target="_blank"&gt;More Info&lt;/a&gt;&lt;/i&gt;</t>
   </si>
 </sst>
 </file>
@@ -425,7 +427,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -561,6 +563,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -859,7 +869,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -902,8 +912,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -917,8 +928,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -952,6 +966,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -967,6 +982,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1015,7 +1033,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1050,7 +1068,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1262,803 +1280,805 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="82.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.44140625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="2" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>131</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="145.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>132</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-117.2296755</v>
       </c>
       <c r="D2" s="3">
-        <v>-117.2296755</v>
-      </c>
-      <c r="E2" s="3">
         <v>32.792095500000002</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-117.23143570000001</v>
       </c>
       <c r="D3" s="3">
-        <v>-117.23143570000001</v>
-      </c>
-      <c r="E3" s="3">
         <v>32.792551000000003</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-117.2313054</v>
       </c>
       <c r="D4" s="3">
-        <v>-117.2313054</v>
-      </c>
-      <c r="E4" s="3">
         <v>32.792258699999998</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-117.23130070000001</v>
       </c>
       <c r="D5" s="3">
-        <v>-117.23130070000001</v>
-      </c>
-      <c r="E5" s="3">
         <v>32.792178700000001</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-117.2234562</v>
       </c>
       <c r="D6" s="3">
-        <v>-117.2234562</v>
-      </c>
-      <c r="E6" s="3">
         <v>32.791569099999997</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" s="4" t="b">
+      <c r="E6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G6" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-117.23039559999999</v>
       </c>
       <c r="D7" s="3">
-        <v>-117.23039559999999</v>
-      </c>
-      <c r="E7" s="3">
         <v>32.7911462</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4"/>
+        <v>106</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>48</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-117.2299153</v>
       </c>
       <c r="D8" s="3">
-        <v>-117.2299153</v>
-      </c>
-      <c r="E8" s="3">
         <v>32.7933734</v>
       </c>
+      <c r="E8" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-117.23081089999999</v>
       </c>
       <c r="D9" s="3">
-        <v>-117.23081089999999</v>
-      </c>
-      <c r="E9" s="3">
         <v>32.792777200000003</v>
       </c>
+      <c r="E9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-117.2299096</v>
       </c>
       <c r="D10" s="3">
-        <v>-117.2299096</v>
-      </c>
-      <c r="E10" s="3">
         <v>32.793343</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>1</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-117.2307709</v>
       </c>
       <c r="D11" s="3">
-        <v>-117.2307709</v>
-      </c>
-      <c r="E11" s="3">
         <v>32.793389400000002</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-117.230248</v>
       </c>
       <c r="D12" s="3">
-        <v>-117.230248</v>
-      </c>
-      <c r="E12" s="3">
         <v>32.794897499999998</v>
       </c>
+      <c r="E12" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H12" s="4"/>
+        <v>111</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-117.2320107</v>
       </c>
       <c r="D13" s="3">
-        <v>-117.2320107</v>
-      </c>
-      <c r="E13" s="3">
         <v>32.791363400000002</v>
       </c>
+      <c r="E13" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-117.2291243</v>
       </c>
       <c r="D14" s="3">
-        <v>-117.2291243</v>
-      </c>
-      <c r="E14" s="3">
         <v>32.791958000000001</v>
       </c>
+      <c r="E14" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-117.2290939</v>
       </c>
       <c r="D15" s="3">
-        <v>-117.2290939</v>
-      </c>
-      <c r="E15" s="3">
         <v>32.791803399999999</v>
       </c>
+      <c r="E15" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H15" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-117.2324632</v>
       </c>
       <c r="D16" s="3">
-        <v>-117.2324632</v>
-      </c>
-      <c r="E16" s="3">
         <v>32.789943399999999</v>
       </c>
+      <c r="E16" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="4"/>
+        <v>115</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-117.2323986</v>
       </c>
       <c r="D17" s="3">
-        <v>-117.2323986</v>
-      </c>
-      <c r="E17" s="3">
         <v>32.789830299999998</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>116</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-117.2323986</v>
       </c>
       <c r="D18" s="3">
-        <v>-117.2323986</v>
-      </c>
-      <c r="E18" s="3">
         <v>32.7897344</v>
       </c>
+      <c r="E18" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>1</v>
+        <v>46</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-117.2318253</v>
       </c>
       <c r="D19" s="3">
-        <v>-117.2318253</v>
-      </c>
-      <c r="E19" s="3">
         <v>32.789768000000002</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>133</v>
+        <v>118</v>
+      </c>
+      <c r="G19" s="4"/>
+      <c r="H19" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-117.2313803</v>
       </c>
       <c r="D20" s="3">
-        <v>-117.2313803</v>
-      </c>
-      <c r="E20" s="3">
         <v>32.789789599999999</v>
       </c>
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1</v>
+        <v>41</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-117.2305817</v>
       </c>
       <c r="D21" s="3">
-        <v>-117.2305817</v>
-      </c>
-      <c r="E21" s="3">
         <v>32.7900341</v>
       </c>
+      <c r="E21" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H21" s="4"/>
+        <v>120</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-117.2301767</v>
       </c>
       <c r="D22" s="3">
-        <v>-117.2301767</v>
-      </c>
-      <c r="E22" s="3">
         <v>32.790283500000001</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="F22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-117.22969759999999</v>
       </c>
       <c r="D23" s="3">
-        <v>-117.22969759999999</v>
-      </c>
-      <c r="E23" s="3">
         <v>32.790408200000002</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F23" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="4"/>
+        <v>122</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-117.2291728</v>
       </c>
       <c r="D24" s="3">
-        <v>-117.2291728</v>
-      </c>
-      <c r="E24" s="3">
         <v>32.7906288</v>
       </c>
+      <c r="E24" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="F24" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H24" s="4"/>
+        <v>123</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-117.2283742</v>
       </c>
       <c r="D25" s="3">
-        <v>-117.2283742</v>
-      </c>
-      <c r="E25" s="3">
         <v>32.7904993</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="F25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H25" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-117.2280832</v>
       </c>
       <c r="D26" s="3">
-        <v>-117.2280832</v>
-      </c>
-      <c r="E26" s="3">
         <v>32.791127500000002</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H26" s="4"/>
+        <v>125</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-117.22867460000001</v>
       </c>
       <c r="D27" s="3">
-        <v>-117.22867460000001</v>
-      </c>
-      <c r="E27" s="3">
         <v>32.794102100000003</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="F27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-117.231697</v>
       </c>
       <c r="D28" s="3">
-        <v>-117.231697</v>
-      </c>
-      <c r="E28" s="3">
         <v>32.792040200000002</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="F28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H28" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-117.231827</v>
       </c>
       <c r="D29" s="3">
-        <v>-117.231827</v>
-      </c>
-      <c r="E29" s="3">
         <v>32.791771699999998</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="F29" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H29" s="4"/>
+        <v>128</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1</v>
+        <v>33</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-117.22806199999999</v>
       </c>
       <c r="D30" s="3">
-        <v>-117.22806199999999</v>
-      </c>
-      <c r="E30" s="3">
         <v>32.795569499999999</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="F30" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="H30" s="4"/>
+        <v>129</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-117.23160900000001</v>
       </c>
       <c r="D31" s="3">
-        <v>-117.23160900000001</v>
-      </c>
-      <c r="E31" s="3">
         <v>32.790238000000002</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H31" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-117.2321846</v>
       </c>
       <c r="D32" s="3">
-        <v>-117.2321846</v>
-      </c>
-      <c r="E32" s="3">
         <v>32.790478</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="F32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H32" s="4"/>
-    </row>
-    <row r="33" spans="8:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="8:8" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H34" s="4"/>
+        <v>131</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="7:7" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>